--- a/analysis/metadata/P02_1/P02_1_minimal_metadata.xlsx
+++ b/analysis/metadata/P02_1/P02_1_minimal_metadata.xlsx
@@ -468,7 +468,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2021-05-27</t>
+          <t>24/07/2015 00:00</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -526,7 +526,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2021-05-27</t>
+          <t>24/07/2015 00:00</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -584,7 +584,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2021-05-27</t>
+          <t>24/07/2015 00:00</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -647,7 +647,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2021-05-27</t>
+          <t>24/07/2015 00:00</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -681,11 +681,6 @@
         </is>
       </c>
       <c r="O5" t="inlineStr">
-        <is>
-          <t>Roadside</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
         <is>
           <t>Roadside</t>
         </is>
@@ -720,7 +715,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2021-05-27</t>
+          <t>24/07/2015 00:00</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -778,7 +773,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2021-05-27</t>
+          <t>24/07/2015 00:00</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -836,7 +831,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2021-05-27</t>
+          <t>24/07/2015 00:00</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -894,7 +889,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2021-05-27</t>
+          <t>08/07/2015 00:00</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -952,7 +947,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2021-05-27</t>
+          <t>06/07/2015 00:00</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1010,7 +1005,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2021-05-27</t>
+          <t>08/07/2015 00:00</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1068,7 +1063,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2021-05-27</t>
+          <t>08/07/2015 00:00</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1126,7 +1121,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2021-05-27</t>
+          <t>06/07/2015 00:00</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1184,7 +1179,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2021-05-27</t>
+          <t>08/07/2015 00:00</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1242,7 +1237,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2021-05-27</t>
+          <t>06/07/2015 00:00</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1305,7 +1300,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2021-05-27</t>
+          <t>13/07/2015 00:00</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1339,11 +1334,6 @@
         </is>
       </c>
       <c r="O16" t="inlineStr">
-        <is>
-          <t>Roadside</t>
-        </is>
-      </c>
-      <c r="P16" t="inlineStr">
         <is>
           <t>Roadside</t>
         </is>
@@ -1378,7 +1368,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2021-05-27</t>
+          <t>13/07/2015 00:00</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1441,7 +1431,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2021-05-27</t>
+          <t>13/07/2015 00:00</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1475,11 +1465,6 @@
         </is>
       </c>
       <c r="O18" t="inlineStr">
-        <is>
-          <t>Roadside</t>
-        </is>
-      </c>
-      <c r="P18" t="inlineStr">
         <is>
           <t>Roadside</t>
         </is>
@@ -1514,7 +1499,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2021-05-27</t>
+          <t>13/07/2015 00:00</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1577,7 +1562,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2021-05-27</t>
+          <t>13/07/2015 00:00</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1611,11 +1596,6 @@
         </is>
       </c>
       <c r="O20" t="inlineStr">
-        <is>
-          <t>Roadside</t>
-        </is>
-      </c>
-      <c r="P20" t="inlineStr">
         <is>
           <t>Roadside</t>
         </is>
@@ -1650,7 +1630,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2021-05-27</t>
+          <t>13/07/2015 00:00</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1708,7 +1688,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2021-05-27</t>
+          <t>13/07/2015 00:00</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1766,7 +1746,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2021-05-27</t>
+          <t>20/07/2015 00:00</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1824,7 +1804,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2021-05-27</t>
+          <t>20/07/2015 00:00</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -1887,7 +1867,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2021-05-27</t>
+          <t>20/07/2015 00:00</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -1921,11 +1901,6 @@
         </is>
       </c>
       <c r="O25" t="inlineStr">
-        <is>
-          <t>Roadside</t>
-        </is>
-      </c>
-      <c r="P25" t="inlineStr">
         <is>
           <t>Roadside</t>
         </is>
@@ -1960,7 +1935,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2021-05-27</t>
+          <t>20/07/2015 00:00</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2018,7 +1993,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2021-05-27</t>
+          <t>20/07/2015 00:00</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2076,7 +2051,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2021-05-27</t>
+          <t>20/07/2015 00:00</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2134,7 +2109,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2021-05-27</t>
+          <t>20/07/2015 00:00</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2192,7 +2167,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2021-05-27</t>
+          <t>22/07/2015 00:00</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2255,7 +2230,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2021-05-27</t>
+          <t>22/07/2015 00:00</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2289,11 +2264,6 @@
         </is>
       </c>
       <c r="O31" t="inlineStr">
-        <is>
-          <t>Roadside</t>
-        </is>
-      </c>
-      <c r="P31" t="inlineStr">
         <is>
           <t>Roadside</t>
         </is>
@@ -2328,7 +2298,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2021-05-27</t>
+          <t>22/07/2015 00:00</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2386,7 +2356,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2021-05-27</t>
+          <t>22/07/2015 00:00</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2444,7 +2414,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2021-05-27</t>
+          <t>22/07/2015 00:00</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2502,7 +2472,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2021-05-27</t>
+          <t>22/07/2015 00:00</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2560,7 +2530,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2021-05-27</t>
+          <t>22/07/2015 00:00</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2618,7 +2588,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2021-05-27</t>
+          <t>14/07/2015 00:00</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -2676,7 +2646,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2021-05-27</t>
+          <t>14/07/2015 00:00</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -2734,7 +2704,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2021-05-27</t>
+          <t>14/07/2015 00:00</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -2792,7 +2762,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2021-05-27</t>
+          <t>14/07/2015 00:00</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -2855,7 +2825,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2021-05-27</t>
+          <t>14/07/2015 00:00</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -2889,11 +2859,6 @@
         </is>
       </c>
       <c r="O41" t="inlineStr">
-        <is>
-          <t>Roadside</t>
-        </is>
-      </c>
-      <c r="P41" t="inlineStr">
         <is>
           <t>Roadside</t>
         </is>
@@ -2928,7 +2893,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2021-05-27</t>
+          <t>14/07/2015 00:00</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -2986,7 +2951,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2021-05-27</t>
+          <t>14/07/2015 00:00</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -3044,7 +3009,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2021-05-27</t>
+          <t>27/05/2021 12:37</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -3102,7 +3067,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2021-05-27</t>
+          <t>27/05/2021 12:37</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -3160,7 +3125,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2021-05-27</t>
+          <t>27/05/2021 12:37</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -3218,7 +3183,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2021-05-27</t>
+          <t>27/05/2021 12:37</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -3281,7 +3246,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2021-05-27</t>
+          <t>27/05/2021 12:37</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -3315,11 +3280,6 @@
         </is>
       </c>
       <c r="O48" t="inlineStr">
-        <is>
-          <t>Roadside</t>
-        </is>
-      </c>
-      <c r="P48" t="inlineStr">
         <is>
           <t>Roadside</t>
         </is>
@@ -3354,7 +3314,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2021-05-27</t>
+          <t>27/05/2021 12:37</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -3412,7 +3372,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2021-05-27</t>
+          <t>27/05/2021 12:37</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -3470,7 +3430,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2021-05-27</t>
+          <t>27/05/2021 12:37</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -3528,7 +3488,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2021-05-27</t>
+          <t>27/05/2021 12:37</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -3586,7 +3546,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>2021-05-27</t>
+          <t>27/05/2021 12:37</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -3644,7 +3604,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2021-05-27</t>
+          <t>27/05/2021 12:37</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -3702,7 +3662,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>2021-05-27</t>
+          <t>27/05/2021 12:37</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -3760,7 +3720,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>2021-05-27</t>
+          <t>27/05/2021 12:37</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -3818,7 +3778,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>2021-05-27</t>
+          <t>27/05/2021 12:37</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -3876,7 +3836,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>2021-05-27</t>
+          <t>05/08/2015 00:00</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -3934,7 +3894,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>2021-05-27</t>
+          <t>05/08/2015 00:00</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -3997,7 +3957,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>2021-05-27</t>
+          <t>05/08/2015 00:00</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -4031,11 +3991,6 @@
         </is>
       </c>
       <c r="O60" t="inlineStr">
-        <is>
-          <t>Roadside</t>
-        </is>
-      </c>
-      <c r="P60" t="inlineStr">
         <is>
           <t>Roadside</t>
         </is>
@@ -4070,7 +4025,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>2021-05-27</t>
+          <t>05/08/2015 00:00</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -4128,7 +4083,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>2021-05-27</t>
+          <t>05/08/2015 00:00</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -4186,7 +4141,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>2021-05-27</t>
+          <t>05/08/2015 00:00</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -4244,7 +4199,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>2021-05-27</t>
+          <t>05/08/2015 00:00</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -4302,7 +4257,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>2021-05-27</t>
+          <t>15/07/2015 00:00</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -4360,7 +4315,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>2021-05-27</t>
+          <t>16/07/2015 00:00</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -4423,7 +4378,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>2021-05-27</t>
+          <t>15/07/2015 00:00</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -4457,11 +4412,6 @@
         </is>
       </c>
       <c r="O67" t="inlineStr">
-        <is>
-          <t>Roadside</t>
-        </is>
-      </c>
-      <c r="P67" t="inlineStr">
         <is>
           <t>Roadside</t>
         </is>
@@ -4496,7 +4446,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>2021-05-27</t>
+          <t>16/07/2015 00:00</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -4554,7 +4504,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>2021-05-27</t>
+          <t>16/07/2015 00:00</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -4612,7 +4562,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>2021-05-27</t>
+          <t>15/07/2015 00:00</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -4670,7 +4620,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>2021-05-27</t>
+          <t>16/07/2015 00:00</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">

--- a/analysis/metadata/P02_1/P02_1_minimal_metadata.xlsx
+++ b/analysis/metadata/P02_1/P02_1_minimal_metadata.xlsx
@@ -468,7 +468,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>24/07/2015 00:00</t>
+          <t>2015-07-24</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -526,7 +526,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>24/07/2015 00:00</t>
+          <t>2015-07-24</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -584,7 +584,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>24/07/2015 00:00</t>
+          <t>2015-07-24</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -647,7 +647,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>24/07/2015 00:00</t>
+          <t>2015-07-24</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -715,7 +715,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>24/07/2015 00:00</t>
+          <t>2015-07-24</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -773,7 +773,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>24/07/2015 00:00</t>
+          <t>2015-07-24</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>24/07/2015 00:00</t>
+          <t>2015-07-24</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>08/07/2015 00:00</t>
+          <t>2015-07-08</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -947,7 +947,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>06/07/2015 00:00</t>
+          <t>2015-07-06</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1005,7 +1005,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>08/07/2015 00:00</t>
+          <t>2015-07-08</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1063,7 +1063,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>08/07/2015 00:00</t>
+          <t>2015-07-08</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>06/07/2015 00:00</t>
+          <t>2015-07-06</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>08/07/2015 00:00</t>
+          <t>2015-07-08</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1237,7 +1237,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>06/07/2015 00:00</t>
+          <t>2015-07-06</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1300,7 +1300,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>13/07/2015 00:00</t>
+          <t>2015-07-13</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1368,7 +1368,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>13/07/2015 00:00</t>
+          <t>2015-07-13</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1431,7 +1431,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>13/07/2015 00:00</t>
+          <t>2015-07-13</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1499,7 +1499,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>13/07/2015 00:00</t>
+          <t>2015-07-13</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1562,7 +1562,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>13/07/2015 00:00</t>
+          <t>2015-07-13</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1630,7 +1630,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>13/07/2015 00:00</t>
+          <t>2015-07-13</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1688,7 +1688,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>13/07/2015 00:00</t>
+          <t>2015-07-13</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1746,7 +1746,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>20/07/2015 00:00</t>
+          <t>2015-07-20</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1804,7 +1804,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>20/07/2015 00:00</t>
+          <t>2015-07-20</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -1867,7 +1867,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>20/07/2015 00:00</t>
+          <t>2015-07-20</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -1935,7 +1935,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>20/07/2015 00:00</t>
+          <t>2015-07-20</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -1993,7 +1993,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>20/07/2015 00:00</t>
+          <t>2015-07-20</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2051,7 +2051,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>20/07/2015 00:00</t>
+          <t>2015-07-20</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2109,7 +2109,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>20/07/2015 00:00</t>
+          <t>2015-07-20</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2167,7 +2167,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>22/07/2015 00:00</t>
+          <t>2015-07-22</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2230,7 +2230,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>22/07/2015 00:00</t>
+          <t>2015-07-22</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2298,7 +2298,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>22/07/2015 00:00</t>
+          <t>2015-07-22</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2356,7 +2356,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>22/07/2015 00:00</t>
+          <t>2015-07-22</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2414,7 +2414,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>22/07/2015 00:00</t>
+          <t>2015-07-22</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2472,7 +2472,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>22/07/2015 00:00</t>
+          <t>2015-07-22</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2530,7 +2530,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>22/07/2015 00:00</t>
+          <t>2015-07-22</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2588,7 +2588,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>14/07/2015 00:00</t>
+          <t>2015-07-14</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -2646,7 +2646,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>14/07/2015 00:00</t>
+          <t>2015-07-14</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -2704,7 +2704,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>14/07/2015 00:00</t>
+          <t>2015-07-14</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -2762,7 +2762,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>14/07/2015 00:00</t>
+          <t>2015-07-14</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -2825,7 +2825,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>14/07/2015 00:00</t>
+          <t>2015-07-14</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -2893,7 +2893,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>14/07/2015 00:00</t>
+          <t>2015-07-14</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -2951,7 +2951,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>14/07/2015 00:00</t>
+          <t>2015-07-14</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -3009,7 +3009,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>27/05/2021 12:37</t>
+          <t>2021-05-27</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -3067,7 +3067,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>27/05/2021 12:37</t>
+          <t>2021-05-27</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -3125,7 +3125,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>27/05/2021 12:37</t>
+          <t>2021-05-27</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -3183,7 +3183,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>27/05/2021 12:37</t>
+          <t>2021-05-27</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -3246,7 +3246,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>27/05/2021 12:37</t>
+          <t>2021-05-27</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -3314,7 +3314,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>27/05/2021 12:37</t>
+          <t>2021-05-27</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -3372,7 +3372,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>27/05/2021 12:37</t>
+          <t>2021-05-27</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -3430,7 +3430,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>27/05/2021 12:37</t>
+          <t>2021-05-27</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -3488,7 +3488,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>27/05/2021 12:37</t>
+          <t>2021-05-27</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -3546,7 +3546,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>27/05/2021 12:37</t>
+          <t>2021-05-27</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -3604,7 +3604,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>27/05/2021 12:37</t>
+          <t>2021-05-27</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -3662,7 +3662,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>27/05/2021 12:37</t>
+          <t>2021-05-27</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -3720,7 +3720,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>27/05/2021 12:37</t>
+          <t>2021-05-27</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -3778,7 +3778,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>27/05/2021 12:37</t>
+          <t>2021-05-27</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -3836,7 +3836,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>05/08/2015 00:00</t>
+          <t>2015-08-05</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -3894,7 +3894,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>05/08/2015 00:00</t>
+          <t>2015-08-05</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -3957,7 +3957,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>05/08/2015 00:00</t>
+          <t>2015-08-05</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -4025,7 +4025,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>05/08/2015 00:00</t>
+          <t>2015-08-05</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -4083,7 +4083,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>05/08/2015 00:00</t>
+          <t>2015-08-05</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -4141,7 +4141,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>05/08/2015 00:00</t>
+          <t>2015-08-05</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -4199,7 +4199,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>05/08/2015 00:00</t>
+          <t>2015-08-05</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -4257,7 +4257,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>15/07/2015 00:00</t>
+          <t>2015-07-15</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -4315,7 +4315,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>16/07/2015 00:00</t>
+          <t>2015-07-16</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -4378,7 +4378,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>15/07/2015 00:00</t>
+          <t>2015-07-15</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -4446,7 +4446,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>16/07/2015 00:00</t>
+          <t>2015-07-16</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>16/07/2015 00:00</t>
+          <t>2015-07-16</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -4562,7 +4562,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>15/07/2015 00:00</t>
+          <t>2015-07-15</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -4620,7 +4620,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>16/07/2015 00:00</t>
+          <t>2015-07-16</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">

--- a/analysis/metadata/P02_1/P02_1_minimal_metadata.xlsx
+++ b/analysis/metadata/P02_1/P02_1_minimal_metadata.xlsx
@@ -3009,7 +3009,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2021-05-27</t>
+          <t>2015-07-29</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -3067,7 +3067,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2021-05-27</t>
+          <t>2015-07-29</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -3125,7 +3125,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2021-05-27</t>
+          <t>2015-07-29</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -3183,7 +3183,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2021-05-27</t>
+          <t>2015-07-29</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -3246,7 +3246,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2021-05-27</t>
+          <t>2015-07-29</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -3314,7 +3314,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2021-05-27</t>
+          <t>2015-07-29</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -3372,7 +3372,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2021-05-27</t>
+          <t>2015-07-29</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -3430,7 +3430,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2021-05-27</t>
+          <t>2015-07-30</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -3488,7 +3488,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2021-05-27</t>
+          <t>2015-07-30</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -3546,7 +3546,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>2021-05-27</t>
+          <t>2015-07-30</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -3604,7 +3604,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2021-05-27</t>
+          <t>2015-07-30</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -3662,7 +3662,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>2021-05-27</t>
+          <t>2015-07-30</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -3720,7 +3720,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>2021-05-27</t>
+          <t>2015-07-30</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -3778,7 +3778,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>2021-05-27</t>
+          <t>2015-07-30</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">

--- a/analysis/metadata/P02_1/P02_1_minimal_metadata.xlsx
+++ b/analysis/metadata/P02_1/P02_1_minimal_metadata.xlsx
@@ -461,6 +461,11 @@
           <t>agriculture</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6233</t>
+        </is>
+      </c>
       <c r="G2" t="inlineStr">
         <is>
           <t>fjenneslevmagle</t>
@@ -494,6 +499,21 @@
       <c r="M2" t="inlineStr">
         <is>
           <t>2015-07-24</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Fields</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Poales, grass</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>Permanent grass, Low yield</t>
         </is>
       </c>
     </row>
@@ -519,6 +539,11 @@
           <t>agriculture</t>
         </is>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6200</t>
+        </is>
+      </c>
       <c r="G3" t="inlineStr">
         <is>
           <t>fjenneslevmagle</t>
@@ -552,6 +577,16 @@
       <c r="M3" t="inlineStr">
         <is>
           <t>2015-07-24</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>Fields</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>Poales, grass</t>
         </is>
       </c>
     </row>
@@ -577,6 +612,11 @@
           <t>agriculture</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5100</t>
+        </is>
+      </c>
       <c r="G4" t="inlineStr">
         <is>
           <t>fjenneslevmagle</t>
@@ -708,6 +748,11 @@
           <t>agriculture</t>
         </is>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6200</t>
+        </is>
+      </c>
       <c r="G6" t="inlineStr">
         <is>
           <t>fjenneslevmagle</t>
@@ -741,6 +786,16 @@
       <c r="M6" t="inlineStr">
         <is>
           <t>2015-07-24</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>Fields</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>Poales, grass</t>
         </is>
       </c>
     </row>
@@ -766,6 +821,11 @@
           <t>agriculture</t>
         </is>
       </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6000</t>
+        </is>
+      </c>
       <c r="G7" t="inlineStr">
         <is>
           <t>fjenneslevmagle</t>
@@ -799,6 +859,11 @@
       <c r="M7" t="inlineStr">
         <is>
           <t>2015-07-24</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>Fields</t>
         </is>
       </c>
     </row>
@@ -824,6 +889,11 @@
           <t>agriculture</t>
         </is>
       </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6123</t>
+        </is>
+      </c>
       <c r="G8" t="inlineStr">
         <is>
           <t>fjenneslevmagle</t>
@@ -857,6 +927,21 @@
       <c r="M8" t="inlineStr">
         <is>
           <t>2015-07-24</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>Fields</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>Poales, Cereal</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>Wheat, Winter</t>
         </is>
       </c>
     </row>
@@ -882,6 +967,11 @@
           <t>agriculture</t>
         </is>
       </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5100</t>
+        </is>
+      </c>
       <c r="G9" t="inlineStr">
         <is>
           <t>holbæk sogn</t>
@@ -940,6 +1030,11 @@
           <t>agriculture</t>
         </is>
       </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6233</t>
+        </is>
+      </c>
       <c r="G10" t="inlineStr">
         <is>
           <t>holbæk sogn</t>
@@ -973,6 +1068,21 @@
       <c r="M10" t="inlineStr">
         <is>
           <t>2015-07-06</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>Fields</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>Poales, grass</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>Permanent grass, Low yield</t>
         </is>
       </c>
     </row>
@@ -998,6 +1108,11 @@
           <t>natural_soil</t>
         </is>
       </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7230</t>
+        </is>
+      </c>
       <c r="G11" t="inlineStr">
         <is>
           <t>holbæk sogn</t>
@@ -1031,6 +1146,21 @@
       <c r="M11" t="inlineStr">
         <is>
           <t>2015-07-08</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>Bogs, mires and fens</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>Calcareous fens</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>Alkaline fens</t>
         </is>
       </c>
     </row>
@@ -1056,6 +1186,11 @@
           <t>agriculture</t>
         </is>
       </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6403</t>
+        </is>
+      </c>
       <c r="G12" t="inlineStr">
         <is>
           <t>holbæk sogn</t>
@@ -1089,6 +1224,16 @@
       <c r="M12" t="inlineStr">
         <is>
           <t>2015-07-08</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>Fields</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>Asterids</t>
         </is>
       </c>
     </row>
@@ -1114,6 +1259,11 @@
           <t>agriculture</t>
         </is>
       </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6000</t>
+        </is>
+      </c>
       <c r="G13" t="inlineStr">
         <is>
           <t>holbæk sogn</t>
@@ -1147,6 +1297,11 @@
       <c r="M13" t="inlineStr">
         <is>
           <t>2015-07-06</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>Fields</t>
         </is>
       </c>
     </row>
@@ -1172,6 +1327,11 @@
           <t>agriculture</t>
         </is>
       </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6900</t>
+        </is>
+      </c>
       <c r="G14" t="inlineStr">
         <is>
           <t>holbæk sogn</t>
@@ -1205,6 +1365,16 @@
       <c r="M14" t="inlineStr">
         <is>
           <t>2015-07-08</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>Fields</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>Fallow</t>
         </is>
       </c>
     </row>
@@ -1230,6 +1400,11 @@
           <t>agriculture</t>
         </is>
       </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6000</t>
+        </is>
+      </c>
       <c r="G15" t="inlineStr">
         <is>
           <t>holbæk sogn</t>
@@ -1263,6 +1438,11 @@
       <c r="M15" t="inlineStr">
         <is>
           <t>2015-07-06</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>Fields</t>
         </is>
       </c>
     </row>
@@ -1361,6 +1541,11 @@
           <t>agriculture</t>
         </is>
       </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6200</t>
+        </is>
+      </c>
       <c r="G17" t="inlineStr">
         <is>
           <t>ingstrup sø</t>
@@ -1394,6 +1579,16 @@
       <c r="M17" t="inlineStr">
         <is>
           <t>2015-07-13</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>Fields</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>Poales, grass</t>
         </is>
       </c>
     </row>
@@ -1492,6 +1687,11 @@
           <t>agriculture</t>
         </is>
       </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6233</t>
+        </is>
+      </c>
       <c r="G19" t="inlineStr">
         <is>
           <t>ingstrup sø</t>
@@ -1525,6 +1725,21 @@
       <c r="M19" t="inlineStr">
         <is>
           <t>2015-07-13</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>Fields</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>Poales, grass</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>Permanent grass, Low yield</t>
         </is>
       </c>
     </row>
@@ -1623,6 +1838,11 @@
           <t>agriculture</t>
         </is>
       </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6841</t>
+        </is>
+      </c>
       <c r="G21" t="inlineStr">
         <is>
           <t>ingstrup sø</t>
@@ -1656,6 +1876,21 @@
       <c r="M21" t="inlineStr">
         <is>
           <t>2015-07-13</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>Fields</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>Mixed crops</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>Catch crop, Fodder radish, Flower</t>
         </is>
       </c>
     </row>
@@ -1681,6 +1916,11 @@
           <t>agriculture</t>
         </is>
       </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6123</t>
+        </is>
+      </c>
       <c r="G22" t="inlineStr">
         <is>
           <t>ingstrup sø</t>
@@ -1714,6 +1954,21 @@
       <c r="M22" t="inlineStr">
         <is>
           <t>2015-07-13</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>Fields</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>Poales, Cereal</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>Wheat, Winter</t>
         </is>
       </c>
     </row>
@@ -1739,6 +1994,11 @@
           <t>agriculture</t>
         </is>
       </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6403</t>
+        </is>
+      </c>
       <c r="G23" t="inlineStr">
         <is>
           <t>kalø</t>
@@ -1772,6 +2032,16 @@
       <c r="M23" t="inlineStr">
         <is>
           <t>2015-07-20</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>Fields</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>Asterids</t>
         </is>
       </c>
     </row>
@@ -1797,6 +2067,11 @@
           <t>agriculture</t>
         </is>
       </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6900</t>
+        </is>
+      </c>
       <c r="G24" t="inlineStr">
         <is>
           <t>kalø</t>
@@ -1830,6 +2105,16 @@
       <c r="M24" t="inlineStr">
         <is>
           <t>2015-07-20</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>Fields</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>Fallow</t>
         </is>
       </c>
     </row>
@@ -1928,6 +2213,11 @@
           <t>agriculture</t>
         </is>
       </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6000</t>
+        </is>
+      </c>
       <c r="G26" t="inlineStr">
         <is>
           <t>kalø</t>
@@ -1961,6 +2251,11 @@
       <c r="M26" t="inlineStr">
         <is>
           <t>2015-07-20</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>Fields</t>
         </is>
       </c>
     </row>
@@ -1986,6 +2281,11 @@
           <t>agriculture</t>
         </is>
       </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>6900</t>
+        </is>
+      </c>
       <c r="G27" t="inlineStr">
         <is>
           <t>kalø</t>
@@ -2019,6 +2319,16 @@
       <c r="M27" t="inlineStr">
         <is>
           <t>2015-07-20</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>Fields</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>Fallow</t>
         </is>
       </c>
     </row>
@@ -2044,6 +2354,11 @@
           <t>agriculture</t>
         </is>
       </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6841</t>
+        </is>
+      </c>
       <c r="G28" t="inlineStr">
         <is>
           <t>kalø</t>
@@ -2077,6 +2392,21 @@
       <c r="M28" t="inlineStr">
         <is>
           <t>2015-07-20</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>Fields</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>Mixed crops</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>Catch crop, Fodder radish, Flower</t>
         </is>
       </c>
     </row>
@@ -2102,6 +2432,11 @@
           <t>agriculture</t>
         </is>
       </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6153</t>
+        </is>
+      </c>
       <c r="G29" t="inlineStr">
         <is>
           <t>kalø</t>
@@ -2135,6 +2470,21 @@
       <c r="M29" t="inlineStr">
         <is>
           <t>2015-07-20</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>Fields</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>Poales, Cereal</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>Rye, Winter</t>
         </is>
       </c>
     </row>
@@ -2160,6 +2510,11 @@
           <t>agriculture</t>
         </is>
       </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>6233</t>
+        </is>
+      </c>
       <c r="G30" t="inlineStr">
         <is>
           <t>nr. virum</t>
@@ -2193,6 +2548,21 @@
       <c r="M30" t="inlineStr">
         <is>
           <t>2015-07-22</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>Fields</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>Poales, grass</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>Permanent grass, Low yield</t>
         </is>
       </c>
     </row>
@@ -2291,6 +2661,11 @@
           <t>agriculture</t>
         </is>
       </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5100</t>
+        </is>
+      </c>
       <c r="G32" t="inlineStr">
         <is>
           <t>nr. virum</t>
@@ -2349,6 +2724,11 @@
           <t>agriculture</t>
         </is>
       </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>6841</t>
+        </is>
+      </c>
       <c r="G33" t="inlineStr">
         <is>
           <t>nr. virum</t>
@@ -2382,6 +2762,21 @@
       <c r="M33" t="inlineStr">
         <is>
           <t>2015-07-22</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>Fields</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>Mixed crops</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>Catch crop, Fodder radish, Flower</t>
         </is>
       </c>
     </row>
@@ -2407,6 +2802,11 @@
           <t>natural_soil</t>
         </is>
       </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>6402</t>
+        </is>
+      </c>
       <c r="G34" t="inlineStr">
         <is>
           <t>nr. virum</t>
@@ -2440,6 +2840,16 @@
       <c r="M34" t="inlineStr">
         <is>
           <t>2015-07-22</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>Grassland formations</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>Semi-natural tall-herb humid meadows</t>
         </is>
       </c>
     </row>
@@ -2465,6 +2875,11 @@
           <t>agriculture</t>
         </is>
       </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>6841</t>
+        </is>
+      </c>
       <c r="G35" t="inlineStr">
         <is>
           <t>nr. virum</t>
@@ -2498,6 +2913,21 @@
       <c r="M35" t="inlineStr">
         <is>
           <t>2015-07-22</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>Fields</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>Mixed crops</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>Catch crop, Fodder radish, Flower</t>
         </is>
       </c>
     </row>
@@ -2523,6 +2953,11 @@
           <t>agriculture</t>
         </is>
       </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>6143</t>
+        </is>
+      </c>
       <c r="G36" t="inlineStr">
         <is>
           <t>nr. virum</t>
@@ -2556,6 +2991,21 @@
       <c r="M36" t="inlineStr">
         <is>
           <t>2015-07-22</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>Fields</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>Poales, Cereal</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>Barley, Winter</t>
         </is>
       </c>
     </row>
@@ -2581,6 +3031,11 @@
           <t>agriculture</t>
         </is>
       </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>6233</t>
+        </is>
+      </c>
       <c r="G37" t="inlineStr">
         <is>
           <t>oddense</t>
@@ -2614,6 +3069,21 @@
       <c r="M37" t="inlineStr">
         <is>
           <t>2015-07-14</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>Fields</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>Poales, grass</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>Permanent grass, Low yield</t>
         </is>
       </c>
     </row>
@@ -2639,6 +3109,11 @@
           <t>agriculture</t>
         </is>
       </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>6403</t>
+        </is>
+      </c>
       <c r="G38" t="inlineStr">
         <is>
           <t>oddense</t>
@@ -2672,6 +3147,16 @@
       <c r="M38" t="inlineStr">
         <is>
           <t>2015-07-14</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>Fields</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>Asterids</t>
         </is>
       </c>
     </row>
@@ -2697,6 +3182,11 @@
           <t>agriculture</t>
         </is>
       </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>6403</t>
+        </is>
+      </c>
       <c r="G39" t="inlineStr">
         <is>
           <t>oddense</t>
@@ -2730,6 +3220,16 @@
       <c r="M39" t="inlineStr">
         <is>
           <t>2015-07-14</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>Fields</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>Asterids</t>
         </is>
       </c>
     </row>
@@ -2755,6 +3255,11 @@
           <t>agriculture</t>
         </is>
       </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>6000</t>
+        </is>
+      </c>
       <c r="G40" t="inlineStr">
         <is>
           <t>oddense</t>
@@ -2788,6 +3293,11 @@
       <c r="M40" t="inlineStr">
         <is>
           <t>2015-07-14</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>Fields</t>
         </is>
       </c>
     </row>
@@ -2886,6 +3396,11 @@
           <t>agriculture</t>
         </is>
       </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5100</t>
+        </is>
+      </c>
       <c r="G42" t="inlineStr">
         <is>
           <t>oddense</t>
@@ -2944,6 +3459,11 @@
           <t>agriculture</t>
         </is>
       </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>6123</t>
+        </is>
+      </c>
       <c r="G43" t="inlineStr">
         <is>
           <t>oddense</t>
@@ -2977,6 +3497,21 @@
       <c r="M43" t="inlineStr">
         <is>
           <t>2015-07-14</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>Fields</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>Poales, Cereal</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>Wheat, Winter</t>
         </is>
       </c>
     </row>
@@ -3002,6 +3537,11 @@
           <t>agriculture</t>
         </is>
       </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>6900</t>
+        </is>
+      </c>
       <c r="G44" t="inlineStr">
         <is>
           <t>strø</t>
@@ -3035,6 +3575,16 @@
       <c r="M44" t="inlineStr">
         <is>
           <t>2015-07-29</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>Fields</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>Fallow</t>
         </is>
       </c>
     </row>
@@ -3060,6 +3610,11 @@
           <t>agriculture</t>
         </is>
       </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>6200</t>
+        </is>
+      </c>
       <c r="G45" t="inlineStr">
         <is>
           <t>strø</t>
@@ -3093,6 +3648,16 @@
       <c r="M45" t="inlineStr">
         <is>
           <t>2015-07-29</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>Fields</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>Poales, grass</t>
         </is>
       </c>
     </row>
@@ -3118,6 +3683,11 @@
           <t>agriculture</t>
         </is>
       </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>6841</t>
+        </is>
+      </c>
       <c r="G46" t="inlineStr">
         <is>
           <t>strø</t>
@@ -3151,6 +3721,21 @@
       <c r="M46" t="inlineStr">
         <is>
           <t>2015-07-29</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>Fields</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>Mixed crops</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>Catch crop, Fodder radish, Flower</t>
         </is>
       </c>
     </row>
@@ -3176,6 +3761,11 @@
           <t>agriculture</t>
         </is>
       </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>6900</t>
+        </is>
+      </c>
       <c r="G47" t="inlineStr">
         <is>
           <t>strø</t>
@@ -3209,6 +3799,16 @@
       <c r="M47" t="inlineStr">
         <is>
           <t>2015-07-29</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>Fields</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>Fallow</t>
         </is>
       </c>
     </row>
@@ -3307,6 +3907,11 @@
           <t>agriculture</t>
         </is>
       </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>5100</t>
+        </is>
+      </c>
       <c r="G49" t="inlineStr">
         <is>
           <t>strø</t>
@@ -3365,6 +3970,11 @@
           <t>agriculture</t>
         </is>
       </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>6000</t>
+        </is>
+      </c>
       <c r="G50" t="inlineStr">
         <is>
           <t>strø</t>
@@ -3398,6 +4008,11 @@
       <c r="M50" t="inlineStr">
         <is>
           <t>2015-07-29</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>Fields</t>
         </is>
       </c>
     </row>
@@ -3423,6 +4038,11 @@
           <t>agriculture</t>
         </is>
       </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>6010</t>
+        </is>
+      </c>
       <c r="G51" t="inlineStr">
         <is>
           <t>sømarke</t>
@@ -3456,6 +4076,11 @@
       <c r="M51" t="inlineStr">
         <is>
           <t>2015-07-30</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>Fields</t>
         </is>
       </c>
     </row>
@@ -3481,6 +4106,11 @@
           <t>agriculture</t>
         </is>
       </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>6233</t>
+        </is>
+      </c>
       <c r="G52" t="inlineStr">
         <is>
           <t>sømarke</t>
@@ -3514,6 +4144,21 @@
       <c r="M52" t="inlineStr">
         <is>
           <t>2015-07-30</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>Fields</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>Poales, grass</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>Permanent grass, Low yield</t>
         </is>
       </c>
     </row>
@@ -3539,6 +4184,11 @@
           <t>natural_soil</t>
         </is>
       </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>9940</t>
+        </is>
+      </c>
       <c r="G53" t="inlineStr">
         <is>
           <t>sømarke</t>
@@ -3572,6 +4222,21 @@
       <c r="M53" t="inlineStr">
         <is>
           <t>2015-07-30</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>Forests</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>Forest (non-habitattype)</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>Beech</t>
         </is>
       </c>
     </row>
@@ -3597,6 +4262,11 @@
           <t>agriculture</t>
         </is>
       </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>6010</t>
+        </is>
+      </c>
       <c r="G54" t="inlineStr">
         <is>
           <t>sømarke</t>
@@ -3630,6 +4300,11 @@
       <c r="M54" t="inlineStr">
         <is>
           <t>2015-07-30</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>Fields</t>
         </is>
       </c>
     </row>
@@ -3655,6 +4330,11 @@
           <t>natural_soil</t>
         </is>
       </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>6402</t>
+        </is>
+      </c>
       <c r="G55" t="inlineStr">
         <is>
           <t>sømarke</t>
@@ -3688,6 +4368,16 @@
       <c r="M55" t="inlineStr">
         <is>
           <t>2015-07-30</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>Grassland formations</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>Semi-natural tall-herb humid meadows</t>
         </is>
       </c>
     </row>
@@ -3713,6 +4403,11 @@
           <t>agriculture</t>
         </is>
       </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>6841</t>
+        </is>
+      </c>
       <c r="G56" t="inlineStr">
         <is>
           <t>sømarke</t>
@@ -3746,6 +4441,21 @@
       <c r="M56" t="inlineStr">
         <is>
           <t>2015-07-30</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>Fields</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>Mixed crops</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>Catch crop, Fodder radish, Flower</t>
         </is>
       </c>
     </row>
@@ -3771,6 +4481,11 @@
           <t>agriculture</t>
         </is>
       </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>6512</t>
+        </is>
+      </c>
       <c r="G57" t="inlineStr">
         <is>
           <t>sømarke</t>
@@ -3804,6 +4519,21 @@
       <c r="M57" t="inlineStr">
         <is>
           <t>2015-07-30</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>Fields</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>Superasterids</t>
+        </is>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>Caryophyllales, Fodder beet</t>
         </is>
       </c>
     </row>
@@ -3829,6 +4559,11 @@
           <t>agriculture</t>
         </is>
       </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>6200</t>
+        </is>
+      </c>
       <c r="G58" t="inlineStr">
         <is>
           <t>vollerup</t>
@@ -3862,6 +4597,16 @@
       <c r="M58" t="inlineStr">
         <is>
           <t>2015-08-05</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>Fields</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>Poales, grass</t>
         </is>
       </c>
     </row>
@@ -3887,6 +4632,11 @@
           <t>agriculture</t>
         </is>
       </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>6841</t>
+        </is>
+      </c>
       <c r="G59" t="inlineStr">
         <is>
           <t>vollerup</t>
@@ -3920,6 +4670,21 @@
       <c r="M59" t="inlineStr">
         <is>
           <t>2015-08-05</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>Fields</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>Mixed crops</t>
+        </is>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>Catch crop, Fodder radish, Flower</t>
         </is>
       </c>
     </row>
@@ -4018,6 +4783,11 @@
           <t>agriculture</t>
         </is>
       </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>5100</t>
+        </is>
+      </c>
       <c r="G61" t="inlineStr">
         <is>
           <t>vollerup</t>
@@ -4076,6 +4846,11 @@
           <t>agriculture</t>
         </is>
       </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>6200</t>
+        </is>
+      </c>
       <c r="G62" t="inlineStr">
         <is>
           <t>vollerup</t>
@@ -4109,6 +4884,16 @@
       <c r="M62" t="inlineStr">
         <is>
           <t>2015-08-05</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>Fields</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>Poales, grass</t>
         </is>
       </c>
     </row>
@@ -4134,6 +4919,11 @@
           <t>agriculture</t>
         </is>
       </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>6000</t>
+        </is>
+      </c>
       <c r="G63" t="inlineStr">
         <is>
           <t>vollerup</t>
@@ -4167,6 +4957,11 @@
       <c r="M63" t="inlineStr">
         <is>
           <t>2015-08-05</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>Fields</t>
         </is>
       </c>
     </row>
@@ -4192,6 +4987,11 @@
           <t>agriculture</t>
         </is>
       </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>6000</t>
+        </is>
+      </c>
       <c r="G64" t="inlineStr">
         <is>
           <t>vollerup</t>
@@ -4225,6 +5025,11 @@
       <c r="M64" t="inlineStr">
         <is>
           <t>2015-08-05</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>Fields</t>
         </is>
       </c>
     </row>
@@ -4250,6 +5055,11 @@
           <t>natural_soil</t>
         </is>
       </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>7230</t>
+        </is>
+      </c>
       <c r="G65" t="inlineStr">
         <is>
           <t>sydthy (midt)</t>
@@ -4283,6 +5093,21 @@
       <c r="M65" t="inlineStr">
         <is>
           <t>2015-07-15</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>Bogs, mires and fens</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>Calcareous fens</t>
+        </is>
+      </c>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>Alkaline fens</t>
         </is>
       </c>
     </row>
@@ -4308,6 +5133,11 @@
           <t>agriculture</t>
         </is>
       </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>5100</t>
+        </is>
+      </c>
       <c r="G66" t="inlineStr">
         <is>
           <t>sydthy (midt)</t>
@@ -4439,6 +5269,11 @@
           <t>agriculture</t>
         </is>
       </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>5100</t>
+        </is>
+      </c>
       <c r="G68" t="inlineStr">
         <is>
           <t>sydthy (midt)</t>
@@ -4497,6 +5332,11 @@
           <t>agriculture</t>
         </is>
       </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>6841</t>
+        </is>
+      </c>
       <c r="G69" t="inlineStr">
         <is>
           <t>sydthy (midt)</t>
@@ -4530,6 +5370,21 @@
       <c r="M69" t="inlineStr">
         <is>
           <t>2015-07-16</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>Fields</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>Mixed crops</t>
+        </is>
+      </c>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>Catch crop, Fodder radish, Flower</t>
         </is>
       </c>
     </row>
@@ -4555,6 +5410,11 @@
           <t>agriculture</t>
         </is>
       </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>6000</t>
+        </is>
+      </c>
       <c r="G70" t="inlineStr">
         <is>
           <t>sydthy (midt)</t>
@@ -4588,6 +5448,11 @@
       <c r="M70" t="inlineStr">
         <is>
           <t>2015-07-15</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>Fields</t>
         </is>
       </c>
     </row>
@@ -4613,6 +5478,11 @@
           <t>agriculture</t>
         </is>
       </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>6000</t>
+        </is>
+      </c>
       <c r="G71" t="inlineStr">
         <is>
           <t>sydthy (midt)</t>
@@ -4646,6 +5516,11 @@
       <c r="M71" t="inlineStr">
         <is>
           <t>2015-07-16</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>Fields</t>
         </is>
       </c>
     </row>

--- a/analysis/metadata/P02_1/P02_1_minimal_metadata.xlsx
+++ b/analysis/metadata/P02_1/P02_1_minimal_metadata.xlsx
@@ -644,12 +644,22 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Agriculture</t>
+          <t>Natural</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
           <t>2015-07-24</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>Sclerophyllus scrub</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Scrub</t>
         </is>
       </c>
     </row>
@@ -999,12 +1009,22 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Agriculture</t>
+          <t>Natural</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
           <t>2015-07-08</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>Sclerophyllus scrub</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>Scrub</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1208,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>6403</t>
+          <t>6431</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1218,7 +1238,7 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Agriculture</t>
+          <t>Natural</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
@@ -1228,12 +1248,17 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>Fields</t>
+          <t>Grassland formations</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Asterids</t>
+          <t>Semi-natural tall-herb humid meadows</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>Agricultural meadow (6430 subtype)</t>
         </is>
       </c>
     </row>
@@ -1996,7 +2021,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>6403</t>
+          <t>6431</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -2026,7 +2051,7 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Agriculture</t>
+          <t>Natural</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
@@ -2036,12 +2061,17 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>Fields</t>
+          <t>Grassland formations</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Asterids</t>
+          <t>Semi-natural tall-herb humid meadows</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>Agricultural meadow (6430 subtype)</t>
         </is>
       </c>
     </row>
@@ -2693,12 +2723,22 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Agriculture</t>
+          <t>Natural</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
           <t>2015-07-22</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>Sclerophyllus scrub</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>Scrub</t>
         </is>
       </c>
     </row>
@@ -2804,7 +2844,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>6402</t>
+          <t>6411</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -2850,6 +2890,11 @@
       <c r="O34" t="inlineStr">
         <is>
           <t>Semi-natural tall-herb humid meadows</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>Natural meadow (6410 subtype)</t>
         </is>
       </c>
     </row>
@@ -3111,7 +3156,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>6403</t>
+          <t>6431</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -3141,7 +3186,7 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Agriculture</t>
+          <t>Natural</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
@@ -3151,12 +3196,17 @@
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>Fields</t>
+          <t>Grassland formations</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>Asterids</t>
+          <t>Semi-natural tall-herb humid meadows</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>Agricultural meadow (6430 subtype)</t>
         </is>
       </c>
     </row>
@@ -3184,7 +3234,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>6403</t>
+          <t>6431</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -3214,7 +3264,7 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Agriculture</t>
+          <t>Natural</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
@@ -3224,12 +3274,17 @@
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>Fields</t>
+          <t>Grassland formations</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>Asterids</t>
+          <t>Semi-natural tall-herb humid meadows</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>Agricultural meadow (6430 subtype)</t>
         </is>
       </c>
     </row>
@@ -3428,12 +3483,22 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Agriculture</t>
+          <t>Natural</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
           <t>2015-07-14</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>Sclerophyllus scrub</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>Scrub</t>
         </is>
       </c>
     </row>
@@ -3939,12 +4004,22 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>Agriculture</t>
+          <t>Natural</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
           <t>2015-07-29</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>Sclerophyllus scrub</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>Scrub</t>
         </is>
       </c>
     </row>
@@ -4070,7 +4145,7 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>Agriculture</t>
+          <t>Natural</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
@@ -4080,7 +4155,7 @@
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>Fields</t>
+          <t>Grassland formations</t>
         </is>
       </c>
     </row>
@@ -4294,7 +4369,7 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>Agriculture</t>
+          <t>Natural</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
@@ -4304,7 +4379,7 @@
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>Fields</t>
+          <t>Grassland formations</t>
         </is>
       </c>
     </row>
@@ -4332,7 +4407,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>6402</t>
+          <t>6411</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -4378,6 +4453,11 @@
       <c r="O55" t="inlineStr">
         <is>
           <t>Semi-natural tall-herb humid meadows</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>Natural meadow (6410 subtype)</t>
         </is>
       </c>
     </row>
@@ -4815,12 +4895,22 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>Agriculture</t>
+          <t>Natural</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
         <is>
           <t>2015-08-05</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>Sclerophyllus scrub</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>Scrub</t>
         </is>
       </c>
     </row>
@@ -5165,12 +5255,22 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>Agriculture</t>
+          <t>Natural</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
         <is>
           <t>2015-07-16</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>Sclerophyllus scrub</t>
+        </is>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>Scrub</t>
         </is>
       </c>
     </row>
@@ -5301,12 +5401,22 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>Agriculture</t>
+          <t>Natural</t>
         </is>
       </c>
       <c r="M68" t="inlineStr">
         <is>
           <t>2015-07-16</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>Sclerophyllus scrub</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>Scrub</t>
         </is>
       </c>
     </row>

--- a/analysis/metadata/P02_1/P02_1_minimal_metadata.xlsx
+++ b/analysis/metadata/P02_1/P02_1_minimal_metadata.xlsx
@@ -687,7 +687,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>6100</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -726,11 +726,6 @@
         </is>
       </c>
       <c r="N5" t="inlineStr">
-        <is>
-          <t>Urban</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
         <is>
           <t>Roadside</t>
         </is>
@@ -1495,7 +1490,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>6100</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1534,11 +1529,6 @@
         </is>
       </c>
       <c r="N16" t="inlineStr">
-        <is>
-          <t>Urban</t>
-        </is>
-      </c>
-      <c r="O16" t="inlineStr">
         <is>
           <t>Roadside</t>
         </is>
@@ -1641,7 +1631,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>6100</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1680,11 +1670,6 @@
         </is>
       </c>
       <c r="N18" t="inlineStr">
-        <is>
-          <t>Urban</t>
-        </is>
-      </c>
-      <c r="O18" t="inlineStr">
         <is>
           <t>Roadside</t>
         </is>
@@ -1792,7 +1777,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>6100</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1831,11 +1816,6 @@
         </is>
       </c>
       <c r="N20" t="inlineStr">
-        <is>
-          <t>Urban</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr">
         <is>
           <t>Roadside</t>
         </is>
@@ -2172,7 +2152,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>6100</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -2211,11 +2191,6 @@
         </is>
       </c>
       <c r="N25" t="inlineStr">
-        <is>
-          <t>Urban</t>
-        </is>
-      </c>
-      <c r="O25" t="inlineStr">
         <is>
           <t>Roadside</t>
         </is>
@@ -2620,7 +2595,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>6100</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -2659,11 +2634,6 @@
         </is>
       </c>
       <c r="N31" t="inlineStr">
-        <is>
-          <t>Urban</t>
-        </is>
-      </c>
-      <c r="O31" t="inlineStr">
         <is>
           <t>Roadside</t>
         </is>
@@ -3380,7 +3350,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>6100</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -3419,11 +3389,6 @@
         </is>
       </c>
       <c r="N41" t="inlineStr">
-        <is>
-          <t>Urban</t>
-        </is>
-      </c>
-      <c r="O41" t="inlineStr">
         <is>
           <t>Roadside</t>
         </is>
@@ -3901,7 +3866,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>6100</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -3940,11 +3905,6 @@
         </is>
       </c>
       <c r="N48" t="inlineStr">
-        <is>
-          <t>Urban</t>
-        </is>
-      </c>
-      <c r="O48" t="inlineStr">
         <is>
           <t>Roadside</t>
         </is>
@@ -4792,7 +4752,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>6100</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -4831,11 +4791,6 @@
         </is>
       </c>
       <c r="N60" t="inlineStr">
-        <is>
-          <t>Urban</t>
-        </is>
-      </c>
-      <c r="O60" t="inlineStr">
         <is>
           <t>Roadside</t>
         </is>
@@ -5298,7 +5253,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>6100</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -5337,11 +5292,6 @@
         </is>
       </c>
       <c r="N67" t="inlineStr">
-        <is>
-          <t>Urban</t>
-        </is>
-      </c>
-      <c r="O67" t="inlineStr">
         <is>
           <t>Roadside</t>
         </is>

--- a/analysis/metadata/P02_1/P02_1_minimal_metadata.xlsx
+++ b/analysis/metadata/P02_1/P02_1_minimal_metadata.xlsx
@@ -654,7 +654,7 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>Sclerophyllus scrub</t>
+          <t>Sclerophyllous scrub</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -1014,7 +1014,7 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>Sclerophyllus scrub</t>
+          <t>Sclerophyllous scrub</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -2703,7 +2703,7 @@
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>Sclerophyllus scrub</t>
+          <t>Sclerophyllous scrub</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
@@ -3458,7 +3458,7 @@
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>Sclerophyllus scrub</t>
+          <t>Sclerophyllous scrub</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
@@ -3974,7 +3974,7 @@
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>Sclerophyllus scrub</t>
+          <t>Sclerophyllous scrub</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
@@ -4860,7 +4860,7 @@
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>Sclerophyllus scrub</t>
+          <t>Sclerophyllous scrub</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
@@ -5220,7 +5220,7 @@
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>Sclerophyllus scrub</t>
+          <t>Sclerophyllous scrub</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
@@ -5361,7 +5361,7 @@
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>Sclerophyllus scrub</t>
+          <t>Sclerophyllous scrub</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
